--- a/Ing_economica/cap4/CLASECAP4VIRALUM.xlsx
+++ b/Ing_economica/cap4/CLASECAP4VIRALUM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\cap4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F05EBB-D130-4B48-AA95-2D15FB5F0FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35599FD-1C68-494C-9668-02FA9872FE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DA96ABBE-E440-4542-9E4F-21EE2B965151}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>b.)</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>(como el interes ya esta anul, el periodo será uno)</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>frecuencia de composición para esas tasas es mensual</t>
+  </si>
+  <si>
+    <t>años</t>
+  </si>
+  <si>
+    <t>Cuando yo me financeo escojo la  masbaja</t>
+  </si>
+  <si>
+    <t>0.12 anual compuesta semestralmente</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +369,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -368,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -400,6 +421,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE365CF7-0A2D-4174-982F-5426BFC433C6}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,7 +928,7 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -1123,7 +1146,9 @@
       <c r="B28" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -1186,6 +1211,9 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1194,7 +1222,9 @@
       <c r="B35" s="2">
         <v>4.36E-2</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
@@ -1279,12 +1309,19 @@
       <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B43"/>
-      <c r="C43" s="2"/>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
+      <c r="A44" s="11">
+        <f>FV(B42,B43,,-B27)</f>
+        <v>12432.034927021699</v>
+      </c>
       <c r="B44" s="21"/>
       <c r="C44" s="2"/>
       <c r="F44" s="2"/>
@@ -1303,18 +1340,36 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5">
+        <f>FV(0.1,B47,,-B27)</f>
+        <v>12100.000000000002</v>
+      </c>
+      <c r="B47" s="25">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <f>FV(B46,B48,,-A47)</f>
+        <v>13396.052944862502</v>
+      </c>
+      <c r="B48" s="25">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1325,7 +1380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>18</v>
       </c>
@@ -1333,44 +1388,70 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <f>EFFECT(0.09/2,2)</f>
+        <v>4.5506249999999859E-2</v>
+      </c>
+      <c r="B53" s="4">
+        <f>EFFECT(0.09,4)</f>
+        <v>9.3083318789062286E-2</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <f>EFFECT(0.03*2,2)</f>
+        <v>6.0899999999999954E-2</v>
+      </c>
+      <c r="B54" s="4">
+        <f>EFFECT(0.03*4,4)</f>
+        <v>0.12550880999999992</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="26">
+        <f>EFFECT(0.088/2,6)</f>
+        <v>4.4814597582221172E-2</v>
+      </c>
+      <c r="B55" s="26">
+        <f>EFFECT(0.088,12)</f>
+        <v>9.1637543320898907E-2</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="4">
+        <f>EFFECT(0.18,365)</f>
+        <v>0.19716424499274088</v>
+      </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="4">
+        <f>EFFECT(0.18/2,182)</f>
+        <v>9.4149943616141263E-2</v>
+      </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>65</v>
       </c>
@@ -1378,12 +1459,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1394,6 +1475,13 @@
         <f>EFFECT(12%,2)</f>
         <v>0.12360000000000015</v>
       </c>
+      <c r="E64" t="s">
+        <v>89</v>
+      </c>
+      <c r="I64">
+        <f>EFFECT(0.12/2,1)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
@@ -1413,7 +1501,10 @@
       <c r="B66" s="3">
         <v>-1000</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5">
+        <f>FV($C$64,10-A66,,B66)</f>
+        <v>3207.1354722128481</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66">
         <v>0</v>
@@ -1429,7 +1520,10 @@
       <c r="B67" s="3">
         <v>0</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="5">
+        <f t="shared" ref="C67:C72" si="2">FV($C$64,10-A67,,B67)</f>
+        <v>0</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67">
         <v>1</v>
@@ -1445,7 +1539,10 @@
       <c r="B68" s="3">
         <v>0</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68">
         <v>2</v>
@@ -1461,7 +1558,10 @@
       <c r="B69" s="3">
         <v>0</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69">
         <v>3</v>
@@ -1477,7 +1577,10 @@
       <c r="B70" s="3">
         <v>-3000</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5">
+        <f t="shared" si="2"/>
+        <v>6036.5894155066553</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70">
         <v>4</v>
@@ -1493,7 +1596,10 @@
       <c r="B71" s="3">
         <v>0</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71">
         <v>5</v>
@@ -1509,7 +1615,10 @@
       <c r="B72" s="3">
         <v>-1500</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5">
+        <f t="shared" si="2"/>
+        <v>2390.7721117962633</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72">
         <v>6</v>
@@ -1522,7 +1631,14 @@
       <c r="A73" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="5"/>
+      <c r="B73" s="3">
+        <f>NPV(C64,B67:B72)+B66</f>
+        <v>-3627.6911593909804</v>
+      </c>
+      <c r="C73" s="5">
+        <f>SUM(C66:C72)</f>
+        <v>11634.496999515766</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73">
         <v>7</v>
@@ -1535,7 +1651,10 @@
       <c r="A74" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="5"/>
+      <c r="B74" s="5">
+        <f>FV(C64,10,,B73)</f>
+        <v>11634.496999515766</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="E74">
         <v>8</v>
@@ -1598,16 +1717,19 @@
       <c r="A79" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="5">
+        <f>FV(B78,14,500)</f>
+        <v>-14244.532382725123</v>
+      </c>
       <c r="C79" s="21"/>
-      <c r="F79" s="3">
+      <c r="F79" s="5">
         <f>NPV(F65,F67:F78)+F66</f>
         <v>-3627.6911593909804</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="F80" s="3">
+      <c r="F80" s="5">
         <f>FV(F65,20,,F79)</f>
         <v>11634.496999515766</v>
       </c>
@@ -1619,7 +1741,10 @@
       <c r="A82" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="4"/>
+      <c r="B82" s="4">
+        <f>EFFECT(0.09/12,1)</f>
+        <v>7.5000000000000622E-3</v>
+      </c>
       <c r="C82" t="s">
         <v>51</v>
       </c>
@@ -1631,7 +1756,10 @@
       <c r="A83" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="4"/>
+      <c r="B83" s="4">
+        <f>EFFECT(0.09/12,1)</f>
+        <v>7.5000000000000622E-3</v>
+      </c>
       <c r="C83" t="s">
         <v>53</v>
       </c>
@@ -1640,7 +1768,10 @@
       <c r="A84" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="22"/>
+      <c r="B84" s="22">
+        <f>PMT(B83,48,12500)</f>
+        <v>-311.06302967417804</v>
+      </c>
       <c r="C84" s="21"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1658,7 +1789,10 @@
       <c r="A88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="4"/>
+      <c r="B88" s="4">
+        <f>EXP(0.18)-1</f>
+        <v>0.19721736312181015</v>
+      </c>
       <c r="C88" t="s">
         <v>68</v>
       </c>
@@ -1667,7 +1801,10 @@
       <c r="A89" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="4"/>
+      <c r="B89" s="4">
+        <f>EXP(0.18/12)-1</f>
+        <v>1.511306461571893E-2</v>
+      </c>
       <c r="C89" t="s">
         <v>69</v>
       </c>
@@ -1681,13 +1818,16 @@
       <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="4"/>
+      <c r="B91" s="4">
+        <f>LN(1+0.15)</f>
+        <v>0.13976194237515863</v>
+      </c>
       <c r="C91" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D91" s="23">
         <f>EXP(B91)-1</f>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -1851,6 +1991,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="3"/>
+      <c r="E105" s="3">
+        <f>E106*B106</f>
+        <v>126561.27172678837</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -1862,8 +2006,14 @@
       <c r="C106" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="13"/>
+      <c r="D106" s="5">
+        <f>PV(C106,2,-B106)</f>
+        <v>126561.27172678839</v>
+      </c>
+      <c r="E106" s="13">
+        <f>-PV(C106,2,1)</f>
+        <v>1.8080181675255482</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -1887,11 +2037,26 @@
       <c r="C108" s="7">
         <v>0.09</v>
       </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="13"/>
+      <c r="D108" s="3">
+        <f>-PV(C108,1,,B108)</f>
+        <v>32110.091743119265</v>
+      </c>
+      <c r="E108" s="5">
+        <f>-PV(C107,2,,D108)</f>
+        <v>28046.197696846244</v>
+      </c>
+      <c r="F108" s="8">
+        <f>-PV(C108,1,1)</f>
+        <v>0.91743119266055118</v>
+      </c>
+      <c r="G108" s="8">
+        <f>PV(C107,2,,-1)</f>
+        <v>0.87343872827321156</v>
+      </c>
+      <c r="H108" s="13">
+        <f>G108*F108</f>
+        <v>0.80131993419560754</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
@@ -1903,13 +2068,31 @@
       <c r="C109" s="7">
         <v>0.1</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="5"/>
+      <c r="D109" s="3">
+        <f>-PV(C109,1,,B109)</f>
+        <v>22727.272727272724</v>
+      </c>
+      <c r="E109" s="3">
+        <f>-PV(C108,1,,D109)</f>
+        <v>20850.708924103415</v>
+      </c>
+      <c r="F109" s="5">
+        <f>-PV(C107,2,,E109)</f>
+        <v>18211.816686263792</v>
+      </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="24"/>
+      <c r="H109" s="8">
+        <f>PV(C109,1,,-1)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I109" s="13">
+        <f>H109*H108</f>
+        <v>0.72847266745055228</v>
+      </c>
+      <c r="J109" s="24">
+        <f>I109+H108+E106</f>
+        <v>3.3378107691717078</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
@@ -1919,7 +2102,10 @@
         <f>AVERAGE(C106:C109)</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3">
+        <f>F109+E108+D106</f>
+        <v>172819.28610989841</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
@@ -1928,7 +2114,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="20">
         <f>PMT(C110,4,-F110)</f>
-        <v>0</v>
+        <v>52468.390024788321</v>
       </c>
       <c r="G111" s="3"/>
     </row>
@@ -1939,9 +2125,9 @@
       <c r="D112" t="s">
         <v>33</v>
       </c>
-      <c r="E112" s="3" t="e">
+      <c r="E112" s="3">
         <f>F110/J109</f>
-        <v>#DIV/0!</v>
+        <v>51776.238397356559</v>
       </c>
       <c r="F112" s="3"/>
     </row>
@@ -1949,9 +2135,9 @@
       <c r="C113" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="3" t="e">
+      <c r="E113" s="3">
         <f>F111-E112</f>
-        <v>#DIV/0!</v>
+        <v>692.15162743176188</v>
       </c>
     </row>
   </sheetData>

--- a/Ing_economica/cap4/CLASECAP4VIRALUM.xlsx
+++ b/Ing_economica/cap4/CLASECAP4VIRALUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\cap4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35599FD-1C68-494C-9668-02FA9872FE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6BA13-55EB-4CC4-B52E-27A33A3B88D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DA96ABBE-E440-4542-9E4F-21EE2B965151}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>b.)</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>0.12 anual compuesta semestralmente</t>
+  </si>
+  <si>
+    <t>9% anual, compuesto trimestralmente</t>
+  </si>
+  <si>
+    <t>3% trimestral, compuesto trimestralmente</t>
+  </si>
+  <si>
+    <t>8.8% anual, compuesto mensualmente</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -421,7 +430,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -919,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE365CF7-0A2D-4174-982F-5426BFC433C6}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1352,7 @@
         <f>FV(0.1,B47,,-B27)</f>
         <v>12100.000000000002</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
@@ -1356,7 +1364,7 @@
         <f>FV(B46,B48,,-A47)</f>
         <v>13396.052944862502</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
@@ -1378,6 +1386,9 @@
       </c>
       <c r="D51" t="s">
         <v>55</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -1398,8 +1409,8 @@
         <v>9.3083318789062286E-2</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>88</v>
+      <c r="D53" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -1412,19 +1423,23 @@
         <v>0.12550880999999992</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="26">
+      <c r="A55" s="25">
         <f>EFFECT(0.088/2,6)</f>
         <v>4.4814597582221172E-2</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <f>EFFECT(0.088,12)</f>
         <v>9.1637543320898907E-2</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
